--- a/bases/09_2024.xlsx
+++ b/bases/09_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://overdax-my.sharepoint.com/personal/alison_pezzott_fluentebi_com/Documents/projetos/live_hugo_venturini_2024_12_05/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{761F1112-96AB-426A-8888-8E568EFA7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1170D312-FE4B-4CFF-85EC-3F050E1365A7}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{761F1112-96AB-426A-8888-8E568EFA7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974D28B5-FD7B-4024-A362-4872AB6B3185}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99A06630-E102-4ABF-9518-9C9EF2E8DDF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>Empresa:</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Horas Normais Diurnas</t>
   </si>
   <si>
-    <t>190:40 hs</t>
-  </si>
-  <si>
     <t>FGTS</t>
   </si>
   <si>
@@ -99,27 +96,18 @@
     <t>PIS</t>
   </si>
   <si>
-    <t>220:00 hs</t>
-  </si>
-  <si>
     <t>Horas Faltas Integrais</t>
   </si>
   <si>
     <t>Horas Faltas PARCIAL</t>
   </si>
   <si>
-    <t>008:48 hs</t>
-  </si>
-  <si>
     <t>Diferença de Salário</t>
   </si>
   <si>
     <t>Horas Faltas DSR Diurnas</t>
   </si>
   <si>
-    <t>014:40 hs</t>
-  </si>
-  <si>
     <t>Comissões</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>DSR S/Comissões</t>
   </si>
   <si>
-    <t>022:00 hs</t>
-  </si>
-  <si>
     <t>Desconto Adiantamento Salarial</t>
   </si>
   <si>
@@ -147,16 +132,7 @@
     <t>Desconto Cooparticipação Plan</t>
   </si>
   <si>
-    <t>008:59 hs</t>
-  </si>
-  <si>
-    <t>003:35 hs</t>
-  </si>
-  <si>
     <t>Vale Transporte (%)</t>
-  </si>
-  <si>
-    <t>002:08 hs</t>
   </si>
   <si>
     <t>Horas Lic.Mater.Diurnas(GPS)</t>
@@ -608,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B459F1B-99A3-4C0A-91B3-CE2186DE9241}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -634,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -657,13 +633,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -671,23 +647,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -698,7 +674,7 @@
         <v>1012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -719,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
@@ -746,14 +722,14 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
+      <c r="D10" s="2">
+        <v>220</v>
       </c>
       <c r="E10" s="5">
         <v>1925.86</v>
@@ -761,7 +737,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>778.05</v>
@@ -771,7 +747,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2">
         <v>71.319999999999993</v>
@@ -779,7 +755,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6">
         <v>0.08</v>
@@ -792,7 +768,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="6">
         <v>0.09</v>
@@ -805,7 +781,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="2">
         <v>416.22</v>
@@ -826,7 +802,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -835,14 +811,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>656.39</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5">
         <v>1997.19</v>
@@ -851,14 +827,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>1997.19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -867,14 +843,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>1997.19</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -883,7 +859,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -894,7 +870,7 @@
         <v>350</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -915,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -942,14 +918,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
+      <c r="D24" s="2">
+        <v>220</v>
       </c>
       <c r="E24" s="5">
         <v>1925.86</v>
@@ -957,10 +933,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="J24" s="2">
         <v>77.03</v>
@@ -970,7 +946,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2">
         <v>61.13</v>
@@ -978,10 +954,10 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I25" s="2">
+        <v>14.66</v>
       </c>
       <c r="J25" s="2">
         <v>128.38999999999999</v>
@@ -991,10 +967,10 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>190.66</v>
       </c>
       <c r="E26" s="2">
         <v>993.85</v>
@@ -1002,7 +978,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J26" s="2">
         <v>8.06</v>
@@ -1012,10 +988,10 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>22</v>
       </c>
       <c r="E27" s="2">
         <v>114.67</v>
@@ -1023,7 +999,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="6">
         <v>0.08</v>
@@ -1036,7 +1012,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="6">
         <v>0.12</v>
@@ -1049,7 +1025,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="2">
         <v>325.83</v>
@@ -1070,7 +1046,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1079,14 +1055,14 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5">
         <v>2319.65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="5">
         <v>2890.1</v>
@@ -1095,14 +1071,14 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5">
         <v>2890.1</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1111,14 +1087,14 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5">
         <v>2890.1</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1127,7 +1103,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1138,7 +1114,7 @@
         <v>729</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -1159,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1186,14 +1162,14 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>24</v>
+      <c r="D40" s="2">
+        <v>220</v>
       </c>
       <c r="E40" s="5">
         <v>1925.86</v>
@@ -1201,7 +1177,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2">
         <v>201.95</v>
@@ -1211,7 +1187,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2">
         <v>61.13</v>
@@ -1219,10 +1195,10 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2.13</v>
       </c>
       <c r="J41" s="2">
         <v>18.670000000000002</v>
@@ -1232,10 +1208,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9</v>
       </c>
       <c r="E42" s="2">
         <v>157.27000000000001</v>
@@ -1243,7 +1219,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I42" s="6">
         <v>0.06</v>
@@ -1256,10 +1232,10 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3.58</v>
       </c>
       <c r="E43" s="2">
         <v>31.45</v>
@@ -1267,7 +1243,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I43" s="2">
         <v>30</v>
@@ -1280,7 +1256,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J44" s="2">
         <v>770.34</v>
@@ -1290,7 +1266,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" s="6">
         <v>0.08</v>
@@ -1303,7 +1279,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="6">
         <v>0.09</v>
@@ -1316,7 +1292,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="2">
         <v>397.7</v>
@@ -1334,7 +1310,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1343,14 +1319,14 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2">
         <v>816.26</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5">
         <v>2157.0500000000002</v>
@@ -1359,14 +1335,14 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="5">
         <v>2157.0500000000002</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -1375,14 +1351,14 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="5">
         <v>2157.0500000000002</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -1397,7 +1373,7 @@
         <v>921</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
@@ -1418,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
@@ -1436,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,11 +1421,11 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E57" s="2">
         <v>61.13</v>
@@ -1457,7 +1433,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J57" s="2">
         <v>156.9</v>
@@ -1467,10 +1443,10 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="D58" s="2">
+        <v>220</v>
       </c>
       <c r="E58" s="5">
         <v>1925.86</v>
@@ -1478,7 +1454,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I58" s="2">
         <v>30</v>
@@ -1491,7 +1467,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J59" s="2">
         <v>770.34</v>
@@ -1501,7 +1477,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I60" s="2">
         <v>30</v>
@@ -1514,7 +1490,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" s="6">
         <v>0.08</v>
@@ -1527,7 +1503,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="6">
         <v>0.09</v>
@@ -1540,7 +1516,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" s="2">
         <v>221.53</v>
@@ -1561,7 +1537,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1570,14 +1546,14 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="2">
         <v>646.20000000000005</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="5">
         <v>1987</v>
@@ -1586,14 +1562,14 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" s="5">
         <v>1987</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -1602,14 +1578,14 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2">
         <v>61.13</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -1618,7 +1594,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -1629,7 +1605,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
@@ -1650,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="4"/>
@@ -1677,14 +1653,14 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>14</v>
+      <c r="D74" s="2">
+        <v>190.66</v>
       </c>
       <c r="E74" s="5">
         <v>2450.9299999999998</v>
@@ -1692,7 +1668,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" s="6">
         <v>0.08</v>
@@ -1705,7 +1681,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="6">
         <v>0.09</v>
@@ -1718,7 +1694,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J76" s="2">
         <v>371.25</v>
@@ -1739,7 +1715,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1748,14 +1724,14 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80" s="5">
         <v>1880.48</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="5">
         <v>2450.9299999999998</v>
@@ -1764,14 +1740,14 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="5">
         <v>2450.9299999999998</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -1780,14 +1756,14 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" s="5">
         <v>2450.9299999999998</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
